--- a/tests/artifact/script/Mobile-CreateCustomer.xlsx
+++ b/tests/artifact/script/Mobile-CreateCustomer.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="1019">
   <si>
     <t>target</t>
   </si>
@@ -2261,7 +2261,7 @@
     <t>execution summary</t>
   </si>
   <si>
-    <t>Invalid login to the Accionconnect website</t>
+    <t>Mobile Login to GNUKhata</t>
   </si>
   <si>
     <t>activity</t>
@@ -2316,6 +2316,9 @@
 password=${login.password}</t>
   </si>
   <si>
+    <t>Create Customer</t>
+  </si>
+  <si>
     <t>Navigate to Organisation</t>
   </si>
   <si>
@@ -2599,6 +2602,9 @@
   </si>
   <si>
     <t>${State.Dropdown}</t>
+  </si>
+  <si>
+    <t>Invalid login to the Accionconnect website</t>
   </si>
   <si>
     <t>Select the customer from the list</t>
@@ -7088,10 +7094,10 @@
   <sheetPr/>
   <dimension ref="A1:O167"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9:C10"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -10076,12 +10082,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P84"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="$A45:$XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -10136,7 +10142,7 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="10" t="s">
-        <v>732</v>
+        <v>750</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -10217,10 +10223,10 @@
     </row>
     <row r="5" s="5" customFormat="1" ht="15.5" spans="1:15">
       <c r="A5" s="14" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>5</v>
@@ -10229,16 +10235,16 @@
         <v>486</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G5" s="62" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="40"/>
@@ -10250,7 +10256,7 @@
     </row>
     <row r="6" s="4" customFormat="1" ht="15.5" spans="2:15">
       <c r="B6" s="4" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>30</v>
@@ -10259,7 +10265,7 @@
         <v>576</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F6" s="23">
         <v>1500</v>
@@ -10277,7 +10283,7 @@
     <row r="7" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A7" s="14"/>
       <c r="B7" s="15" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>30</v>
@@ -10286,7 +10292,7 @@
         <v>576</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="F7" s="23">
         <v>2000</v>
@@ -10303,10 +10309,10 @@
     </row>
     <row r="8" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A8" s="20" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>30</v>
@@ -10315,7 +10321,7 @@
         <v>576</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F8" s="23">
         <v>2000</v>
@@ -10332,7 +10338,7 @@
     </row>
     <row r="9" s="2" customFormat="1" spans="2:15">
       <c r="B9" s="15" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>30</v>
@@ -10341,7 +10347,7 @@
         <v>714</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="22"/>
@@ -10356,7 +10362,7 @@
     </row>
     <row r="10" s="5" customFormat="1" spans="2:15">
       <c r="B10" s="26" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>30</v>
@@ -10365,7 +10371,7 @@
         <v>576</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F10" s="27">
         <v>3000</v>
@@ -10383,7 +10389,7 @@
     <row r="11" s="5" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A11" s="28"/>
       <c r="B11" s="29" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>30</v>
@@ -10392,10 +10398,10 @@
         <v>706</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
@@ -10410,7 +10416,7 @@
     <row r="12" s="5" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A12" s="28"/>
       <c r="B12" s="29" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>5</v>
@@ -10419,10 +10425,10 @@
         <v>471</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
@@ -10437,7 +10443,7 @@
     <row r="13" s="5" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A13" s="28"/>
       <c r="B13" s="29" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>30</v>
@@ -10446,10 +10452,10 @@
         <v>706</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
@@ -10464,7 +10470,7 @@
     <row r="14" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>30</v>
@@ -10473,10 +10479,10 @@
         <v>706</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -10491,7 +10497,7 @@
     <row r="15" s="6" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A15" s="28"/>
       <c r="B15" s="15" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>30</v>
@@ -10500,10 +10506,10 @@
         <v>706</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
@@ -10517,7 +10523,7 @@
     </row>
     <row r="16" s="2" customFormat="1" ht="15.5" spans="2:15">
       <c r="B16" s="15" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>5</v>
@@ -10526,16 +10532,16 @@
         <v>486</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="40"/>
@@ -10548,7 +10554,7 @@
     <row r="17" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>30</v>
@@ -10557,7 +10563,7 @@
         <v>576</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F17" s="27">
         <v>2000</v>
@@ -10575,7 +10581,7 @@
     <row r="18" s="6" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A18" s="28"/>
       <c r="B18" s="29" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>30</v>
@@ -10584,10 +10590,10 @@
         <v>706</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -10602,7 +10608,7 @@
     <row r="19" s="6" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A19" s="28"/>
       <c r="B19" s="29" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>30</v>
@@ -10611,10 +10617,10 @@
         <v>706</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
@@ -10629,7 +10635,7 @@
     <row r="20" s="5" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A20" s="28"/>
       <c r="B20" s="15" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>30</v>
@@ -10638,10 +10644,10 @@
         <v>692</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
@@ -10656,7 +10662,7 @@
     <row r="21" s="5" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A21" s="28"/>
       <c r="B21" s="15" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C21" s="30" t="s">
         <v>30</v>
@@ -10665,10 +10671,10 @@
         <v>692</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
@@ -10683,7 +10689,7 @@
     <row r="22" s="5" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A22" s="28"/>
       <c r="B22" s="15" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C22" s="30" t="s">
         <v>30</v>
@@ -10692,7 +10698,7 @@
         <v>576</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F22" s="27">
         <v>1000</v>
@@ -10710,7 +10716,7 @@
     <row r="23" s="5" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A23" s="28"/>
       <c r="B23" s="29" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C23" s="30" t="s">
         <v>30</v>
@@ -10719,10 +10725,10 @@
         <v>706</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
@@ -10737,7 +10743,7 @@
     <row r="24" s="5" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A24" s="28"/>
       <c r="B24" s="29" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>30</v>
@@ -10746,10 +10752,10 @@
         <v>706</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
@@ -10764,7 +10770,7 @@
     <row r="25" s="5" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A25" s="28"/>
       <c r="B25" s="29" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>30</v>
@@ -10773,10 +10779,10 @@
         <v>706</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
@@ -10791,7 +10797,7 @@
     <row r="26" s="5" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A26" s="28"/>
       <c r="B26" s="15" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>30</v>
@@ -10800,7 +10806,7 @@
         <v>576</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F26" s="27">
         <v>1000</v>
@@ -10818,7 +10824,7 @@
     <row r="27" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="20"/>
       <c r="B27" s="29" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C27" s="30" t="s">
         <v>30</v>
@@ -10827,10 +10833,10 @@
         <v>706</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -10845,7 +10851,7 @@
     <row r="28" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A28" s="20"/>
       <c r="B28" s="15" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C28" s="30" t="s">
         <v>30</v>
@@ -10854,7 +10860,7 @@
         <v>576</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F28" s="27">
         <v>1500</v>
@@ -10872,7 +10878,7 @@
     <row r="29" s="6" customFormat="1" ht="19" customHeight="1" spans="1:16">
       <c r="A29" s="20"/>
       <c r="B29" s="15" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>30</v>
@@ -10881,7 +10887,7 @@
         <v>576</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F29" s="27">
         <v>1500</v>
@@ -10900,7 +10906,7 @@
     <row r="30" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="20"/>
       <c r="B30" s="29" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C30" s="30" t="s">
         <v>30</v>
@@ -10909,10 +10915,10 @@
         <v>706</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
@@ -10927,7 +10933,7 @@
     <row r="31" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="20"/>
       <c r="B31" s="15" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>30</v>
@@ -10936,7 +10942,7 @@
         <v>576</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F31" s="27">
         <v>3000</v>
@@ -10953,7 +10959,7 @@
     </row>
     <row r="32" s="2" customFormat="1" spans="2:15">
       <c r="B32" s="15" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>30</v>
@@ -10962,7 +10968,7 @@
         <v>714</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="22"/>
@@ -10978,7 +10984,7 @@
     <row r="33" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="20"/>
       <c r="B33" s="15" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C33" s="30" t="s">
         <v>30</v>
@@ -10987,7 +10993,7 @@
         <v>576</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F33" s="27">
         <v>1500</v>
@@ -11005,7 +11011,7 @@
     <row r="34" s="6" customFormat="1" ht="28" spans="1:15">
       <c r="A34" s="20"/>
       <c r="B34" s="26" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>30</v>
@@ -11014,7 +11020,7 @@
         <v>253</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="G34" s="27"/>
       <c r="H34" s="25"/>
@@ -11028,10 +11034,10 @@
     </row>
     <row r="35" s="6" customFormat="1" ht="28" spans="1:15">
       <c r="A35" s="20" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>30</v>
@@ -11040,7 +11046,7 @@
         <v>363</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="25"/>
@@ -11054,7 +11060,7 @@
     </row>
     <row r="36" s="5" customFormat="1" spans="2:15">
       <c r="B36" s="26" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C36" s="24" t="s">
         <v>30</v>
@@ -11063,7 +11069,7 @@
         <v>576</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F36" s="27">
         <v>1500</v>
@@ -11080,7 +11086,7 @@
     </row>
     <row r="37" s="5" customFormat="1" spans="2:15">
       <c r="B37" s="29" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C37" s="30" t="s">
         <v>30</v>
@@ -11089,10 +11095,10 @@
         <v>706</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F37" s="31" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="G37" s="31"/>
       <c r="H37" s="31"/>
@@ -11107,7 +11113,7 @@
     <row r="38" s="5" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A38" s="28"/>
       <c r="B38" s="29" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C38" s="30" t="s">
         <v>30</v>
@@ -11116,10 +11122,10 @@
         <v>706</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G38" s="31"/>
       <c r="H38" s="31"/>
@@ -11134,7 +11140,7 @@
     <row r="39" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="14"/>
       <c r="B39" s="15" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>30</v>
@@ -11143,10 +11149,10 @@
         <v>706</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
@@ -11161,7 +11167,7 @@
     <row r="40" s="6" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A40" s="28"/>
       <c r="B40" s="15" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>30</v>
@@ -11170,10 +11176,10 @@
         <v>706</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="G40" s="31"/>
       <c r="H40" s="31"/>
@@ -11187,7 +11193,7 @@
     </row>
     <row r="41" s="2" customFormat="1" ht="15.5" spans="2:15">
       <c r="B41" s="15" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>5</v>
@@ -11196,16 +11202,16 @@
         <v>486</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="I41" s="22"/>
       <c r="J41" s="40"/>
@@ -11218,7 +11224,7 @@
     <row r="42" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="14"/>
       <c r="B42" s="15" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>30</v>
@@ -11227,7 +11233,7 @@
         <v>576</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F42" s="27">
         <v>2000</v>
@@ -11244,7 +11250,7 @@
     </row>
     <row r="43" ht="21" customHeight="1" spans="2:6">
       <c r="B43" s="29" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C43" s="30" t="s">
         <v>30</v>
@@ -11253,7 +11259,7 @@
         <v>706</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F43" s="32">
         <v>400013</v>
@@ -11261,7 +11267,7 @@
     </row>
     <row r="44" ht="22" customHeight="1" spans="2:6">
       <c r="B44" s="29" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C44" s="30" t="s">
         <v>30</v>
@@ -11270,55 +11276,55 @@
         <v>706</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F44" s="31" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A45" s="20"/>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="45" s="5" customFormat="1" ht="21" customHeight="1" spans="1:15">
+      <c r="A45" s="28"/>
       <c r="B45" s="15" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="C45" s="30" t="s">
         <v>30</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>576</v>
+        <v>692</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>800</v>
-      </c>
-      <c r="F45" s="27">
-        <v>1500</v>
-      </c>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="42"/>
+        <v>795</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>796</v>
+      </c>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="55"/>
+      <c r="O45" s="54"/>
     </row>
     <row r="46" s="5" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A46" s="28"/>
-      <c r="B46" s="29" t="s">
-        <v>801</v>
+      <c r="B46" s="15" t="s">
+        <v>797</v>
       </c>
       <c r="C46" s="30" t="s">
         <v>30</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>706</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>802</v>
-      </c>
-      <c r="F46" s="33" t="s">
-        <v>834</v>
+        <v>692</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>798</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>799</v>
       </c>
       <c r="G46" s="31"/>
       <c r="H46" s="31"/>
@@ -11330,37 +11336,37 @@
       <c r="N46" s="55"/>
       <c r="O46" s="54"/>
     </row>
-    <row r="47" s="5" customFormat="1" ht="22" customHeight="1" spans="1:15">
-      <c r="A47" s="28"/>
-      <c r="B47" s="29" t="s">
-        <v>804</v>
+    <row r="47" customFormat="1" ht="19" customHeight="1" spans="1:15">
+      <c r="A47" s="20"/>
+      <c r="B47" s="15" t="s">
+        <v>800</v>
       </c>
       <c r="C47" s="30" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>706</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>805</v>
-      </c>
-      <c r="F47" s="32">
-        <v>9987655678</v>
-      </c>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="55"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="55"/>
-      <c r="O47" s="54"/>
-    </row>
-    <row r="48" s="5" customFormat="1" ht="22" customHeight="1" spans="1:15">
+        <v>576</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>801</v>
+      </c>
+      <c r="F47" s="27">
+        <v>1500</v>
+      </c>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="51"/>
+      <c r="O47" s="42"/>
+    </row>
+    <row r="48" s="5" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A48" s="28"/>
       <c r="B48" s="29" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="C48" s="30" t="s">
         <v>30</v>
@@ -11369,10 +11375,10 @@
         <v>706</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>808</v>
-      </c>
-      <c r="F48" s="32">
-        <v>98765432112</v>
+        <v>803</v>
+      </c>
+      <c r="F48" s="33" t="s">
+        <v>835</v>
       </c>
       <c r="G48" s="31"/>
       <c r="H48" s="31"/>
@@ -11384,37 +11390,37 @@
       <c r="N48" s="55"/>
       <c r="O48" s="54"/>
     </row>
-    <row r="49" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A49" s="20"/>
-      <c r="B49" s="15" t="s">
-        <v>809</v>
+    <row r="49" s="5" customFormat="1" ht="22" customHeight="1" spans="1:15">
+      <c r="A49" s="28"/>
+      <c r="B49" s="29" t="s">
+        <v>805</v>
       </c>
       <c r="C49" s="30" t="s">
         <v>30</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>576</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>810</v>
-      </c>
-      <c r="F49" s="27">
-        <v>1500</v>
-      </c>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="42"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="52"/>
-      <c r="N49" s="51"/>
-      <c r="O49" s="42"/>
-    </row>
-    <row r="50" ht="23" customHeight="1" spans="1:15">
-      <c r="A50" s="20"/>
+        <v>706</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>806</v>
+      </c>
+      <c r="F49" s="32">
+        <v>9987655678</v>
+      </c>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="54"/>
+    </row>
+    <row r="50" s="5" customFormat="1" ht="22" customHeight="1" spans="1:15">
+      <c r="A50" s="28"/>
       <c r="B50" s="29" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C50" s="30" t="s">
         <v>30</v>
@@ -11423,25 +11429,25 @@
         <v>706</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>812</v>
-      </c>
-      <c r="F50" s="34" t="s">
-        <v>835</v>
-      </c>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="51"/>
-      <c r="M50" s="52"/>
-      <c r="N50" s="51"/>
-      <c r="O50" s="42"/>
+        <v>809</v>
+      </c>
+      <c r="F50" s="32">
+        <v>98765432112</v>
+      </c>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="55"/>
+      <c r="O50" s="54"/>
     </row>
     <row r="51" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A51" s="20"/>
       <c r="B51" s="15" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C51" s="30" t="s">
         <v>30</v>
@@ -11450,7 +11456,7 @@
         <v>576</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="F51" s="27">
         <v>1500</v>
@@ -11465,22 +11471,22 @@
       <c r="N51" s="51"/>
       <c r="O51" s="42"/>
     </row>
-    <row r="52" ht="19" customHeight="1" spans="1:16">
+    <row r="52" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="20"/>
-      <c r="B52" s="15" t="s">
-        <v>814</v>
+      <c r="B52" s="29" t="s">
+        <v>812</v>
       </c>
       <c r="C52" s="30" t="s">
         <v>30</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>576</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>816</v>
-      </c>
-      <c r="F52" s="27">
-        <v>1500</v>
+        <v>706</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="F52" s="34" t="s">
+        <v>836</v>
       </c>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
@@ -11491,24 +11497,23 @@
       <c r="M52" s="52"/>
       <c r="N52" s="51"/>
       <c r="O52" s="42"/>
-      <c r="P52"/>
-    </row>
-    <row r="53" ht="23" customHeight="1" spans="1:15">
+    </row>
+    <row r="53" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A53" s="20"/>
-      <c r="B53" s="29" t="s">
-        <v>817</v>
+      <c r="B53" s="15" t="s">
+        <v>815</v>
       </c>
       <c r="C53" s="30" t="s">
         <v>30</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>706</v>
+        <v>576</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>818</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>836</v>
+        <v>816</v>
+      </c>
+      <c r="F53" s="27">
+        <v>1500</v>
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
@@ -11520,10 +11525,10 @@
       <c r="N53" s="51"/>
       <c r="O53" s="42"/>
     </row>
-    <row r="54" ht="23" customHeight="1" spans="1:15">
+    <row r="54" ht="19" customHeight="1" spans="1:16">
       <c r="A54" s="20"/>
       <c r="B54" s="15" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="C54" s="30" t="s">
         <v>30</v>
@@ -11532,7 +11537,7 @@
         <v>576</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F54" s="27">
         <v>1500</v>
@@ -11546,46 +11551,52 @@
       <c r="M54" s="52"/>
       <c r="N54" s="51"/>
       <c r="O54" s="42"/>
-    </row>
-    <row r="55" s="2" customFormat="1" spans="2:15">
-      <c r="B55" s="15" t="s">
-        <v>763</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>714</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>764</v>
-      </c>
-      <c r="F55" s="27"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="17"/>
+      <c r="P54"/>
+    </row>
+    <row r="55" ht="23" customHeight="1" spans="1:15">
+      <c r="A55" s="20"/>
+      <c r="B55" s="29" t="s">
+        <v>818</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>819</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>837</v>
+      </c>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="51"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="51"/>
+      <c r="O55" s="42"/>
     </row>
     <row r="56" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="20"/>
       <c r="B56" s="15" t="s">
+        <v>821</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="E56" s="25" t="s">
         <v>822</v>
       </c>
-      <c r="C56" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="31" t="s">
-        <v>363</v>
-      </c>
-      <c r="E56" s="25" t="s">
-        <v>823</v>
-      </c>
-      <c r="F56" s="27"/>
+      <c r="F56" s="27">
+        <v>1500</v>
+      </c>
       <c r="G56" s="25"/>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
@@ -11596,48 +11607,46 @@
       <c r="N56" s="51"/>
       <c r="O56" s="42"/>
     </row>
-    <row r="57" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A57" s="20"/>
-      <c r="B57" s="26" t="s">
+    <row r="57" s="2" customFormat="1" spans="2:15">
+      <c r="B57" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>714</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>765</v>
+      </c>
+      <c r="F57" s="27"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="17"/>
+    </row>
+    <row r="58" ht="23" customHeight="1" spans="1:15">
+      <c r="A58" s="20"/>
+      <c r="B58" s="15" t="s">
+        <v>823</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="E58" s="25" t="s">
         <v>824</v>
       </c>
-      <c r="C57" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>837</v>
-      </c>
-      <c r="F57" s="27"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="42"/>
-      <c r="L57" s="51"/>
-      <c r="M57" s="52"/>
-      <c r="N57" s="51"/>
-      <c r="O57" s="42"/>
-    </row>
-    <row r="58" s="6" customFormat="1" ht="28" spans="1:15">
-      <c r="A58" s="20" t="s">
-        <v>838</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>827</v>
-      </c>
-      <c r="C58" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="E58" s="27" t="s">
-        <v>828</v>
-      </c>
-      <c r="G58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="25"/>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
       <c r="J58" s="50"/>
@@ -11647,129 +11656,126 @@
       <c r="N58" s="51"/>
       <c r="O58" s="42"/>
     </row>
-    <row r="59" s="5" customFormat="1" spans="2:15">
+    <row r="59" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A59" s="20"/>
       <c r="B59" s="26" t="s">
-        <v>765</v>
+        <v>825</v>
       </c>
       <c r="C59" s="24" t="s">
         <v>30</v>
       </c>
       <c r="D59" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>838</v>
+      </c>
+      <c r="F59" s="27"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="51"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="51"/>
+      <c r="O59" s="42"/>
+    </row>
+    <row r="60" s="6" customFormat="1" ht="28" spans="1:15">
+      <c r="A60" s="20" t="s">
+        <v>839</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>828</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>829</v>
+      </c>
+      <c r="G60" s="27"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="51"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="51"/>
+      <c r="O60" s="42"/>
+    </row>
+    <row r="61" s="5" customFormat="1" spans="2:15">
+      <c r="B61" s="26" t="s">
+        <v>766</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="E59" s="25" t="s">
-        <v>766</v>
-      </c>
-      <c r="F59" s="27">
+      <c r="E61" s="25" t="s">
+        <v>767</v>
+      </c>
+      <c r="F61" s="27">
         <v>1500</v>
       </c>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="40"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="17"/>
-    </row>
-    <row r="60" s="5" customFormat="1" ht="21" customHeight="1" spans="1:15">
-      <c r="A60" s="28"/>
-      <c r="B60" s="29" t="s">
-        <v>767</v>
-      </c>
-      <c r="C60" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="31" t="s">
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="17"/>
+    </row>
+    <row r="62" s="5" customFormat="1" ht="21" customHeight="1" spans="1:15">
+      <c r="A62" s="28"/>
+      <c r="B62" s="29" t="s">
+        <v>768</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="31" t="s">
         <v>706</v>
       </c>
-      <c r="E60" s="31" t="s">
-        <v>768</v>
-      </c>
-      <c r="F60" s="31" t="s">
-        <v>829</v>
-      </c>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="55"/>
-      <c r="M60" s="56"/>
-      <c r="N60" s="55"/>
-      <c r="O60" s="54"/>
-    </row>
-    <row r="61" s="5" customFormat="1" ht="22" customHeight="1" spans="1:15">
-      <c r="A61" s="28"/>
-      <c r="B61" s="29" t="s">
-        <v>773</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" s="31" t="s">
+      <c r="E62" s="31" t="s">
+        <v>769</v>
+      </c>
+      <c r="F62" s="31" t="s">
+        <v>830</v>
+      </c>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="53"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="55"/>
+      <c r="M62" s="56"/>
+      <c r="N62" s="55"/>
+      <c r="O62" s="54"/>
+    </row>
+    <row r="63" s="5" customFormat="1" ht="22" customHeight="1" spans="1:15">
+      <c r="A63" s="28"/>
+      <c r="B63" s="29" t="s">
+        <v>774</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="31" t="s">
         <v>706</v>
       </c>
-      <c r="E61" s="31" t="s">
-        <v>774</v>
-      </c>
-      <c r="F61" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="55"/>
-      <c r="M61" s="56"/>
-      <c r="N61" s="55"/>
-      <c r="O61" s="54"/>
-    </row>
-    <row r="62" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A62" s="14"/>
-      <c r="B62" s="15" t="s">
-        <v>776</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>706</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>777</v>
-      </c>
-      <c r="F62" s="27" t="s">
+      <c r="E63" s="31" t="s">
+        <v>775</v>
+      </c>
+      <c r="F63" s="31" t="s">
         <v>840</v>
-      </c>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="40"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="18"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="18"/>
-      <c r="O62" s="17"/>
-    </row>
-    <row r="63" s="6" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A63" s="28"/>
-      <c r="B63" s="15" t="s">
-        <v>779</v>
-      </c>
-      <c r="C63" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" s="25" t="s">
-        <v>706</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>780</v>
-      </c>
-      <c r="F63" s="27" t="s">
-        <v>781</v>
       </c>
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
@@ -11781,28 +11787,25 @@
       <c r="N63" s="55"/>
       <c r="O63" s="54"/>
     </row>
-    <row r="64" s="2" customFormat="1" ht="15.5" spans="2:15">
+    <row r="64" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A64" s="14"/>
       <c r="B64" s="15" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>486</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>783</v>
+        <v>706</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>778</v>
       </c>
       <c r="F64" s="27" t="s">
-        <v>753</v>
-      </c>
-      <c r="G64" s="27" t="s">
-        <v>781</v>
-      </c>
-      <c r="H64" s="22" t="s">
-        <v>784</v>
-      </c>
+        <v>841</v>
+      </c>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
       <c r="I64" s="22"/>
       <c r="J64" s="40"/>
       <c r="K64" s="17"/>
@@ -11811,98 +11814,110 @@
       <c r="N64" s="18"/>
       <c r="O64" s="17"/>
     </row>
-    <row r="65" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A65" s="14"/>
+    <row r="65" s="6" customFormat="1" ht="19" customHeight="1" spans="1:15">
+      <c r="A65" s="28"/>
       <c r="B65" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>706</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>781</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>782</v>
+      </c>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="54"/>
+      <c r="L65" s="55"/>
+      <c r="M65" s="56"/>
+      <c r="N65" s="55"/>
+      <c r="O65" s="54"/>
+    </row>
+    <row r="66" s="2" customFormat="1" ht="15.5" spans="2:15">
+      <c r="B66" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>754</v>
+      </c>
+      <c r="G66" s="27" t="s">
+        <v>782</v>
+      </c>
+      <c r="H66" s="22" t="s">
         <v>785</v>
       </c>
-      <c r="C65" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65" s="25" t="s">
+      <c r="I66" s="22"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="17"/>
+    </row>
+    <row r="67" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A67" s="14"/>
+      <c r="B67" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="E65" s="6" t="s">
-        <v>786</v>
-      </c>
-      <c r="F65" s="27">
+      <c r="E67" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="F67" s="27">
         <v>2000</v>
       </c>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="40"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="17"/>
-    </row>
-    <row r="66" ht="21" customHeight="1" spans="2:6">
-      <c r="B66" s="29" t="s">
-        <v>831</v>
-      </c>
-      <c r="C66" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D66" s="31" t="s">
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="17"/>
+    </row>
+    <row r="68" ht="21" customHeight="1" spans="2:6">
+      <c r="B68" s="29" t="s">
+        <v>832</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" s="31" t="s">
         <v>706</v>
       </c>
-      <c r="E66" s="31" t="s">
-        <v>788</v>
-      </c>
-      <c r="F66" s="32">
+      <c r="E68" s="31" t="s">
+        <v>789</v>
+      </c>
+      <c r="F68" s="32">
         <v>400013</v>
       </c>
     </row>
-    <row r="67" ht="22" customHeight="1" spans="2:6">
-      <c r="B67" s="29" t="s">
-        <v>832</v>
-      </c>
-      <c r="C67" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D67" s="31" t="s">
-        <v>706</v>
-      </c>
-      <c r="E67" s="31" t="s">
-        <v>791</v>
-      </c>
-      <c r="F67" s="31" t="s">
+    <row r="69" ht="22" customHeight="1" spans="2:6">
+      <c r="B69" s="29" t="s">
         <v>833</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A68" s="20"/>
-      <c r="B68" s="15" t="s">
-        <v>799</v>
-      </c>
-      <c r="C68" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D68" s="31" t="s">
-        <v>576</v>
-      </c>
-      <c r="E68" s="25" t="s">
-        <v>800</v>
-      </c>
-      <c r="F68" s="27">
-        <v>1500</v>
-      </c>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="42"/>
-      <c r="L68" s="51"/>
-      <c r="M68" s="52"/>
-      <c r="N68" s="51"/>
-      <c r="O68" s="42"/>
-    </row>
-    <row r="69" s="5" customFormat="1" ht="21" customHeight="1" spans="1:15">
-      <c r="A69" s="28"/>
-      <c r="B69" s="29" t="s">
-        <v>801</v>
       </c>
       <c r="C69" s="30" t="s">
         <v>30</v>
@@ -11911,52 +11926,43 @@
         <v>706</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>802</v>
-      </c>
-      <c r="F69" s="33" t="s">
+        <v>792</v>
+      </c>
+      <c r="F69" s="31" t="s">
         <v>834</v>
       </c>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="53"/>
-      <c r="K69" s="54"/>
-      <c r="L69" s="55"/>
-      <c r="M69" s="56"/>
-      <c r="N69" s="55"/>
-      <c r="O69" s="54"/>
-    </row>
-    <row r="70" s="5" customFormat="1" ht="22" customHeight="1" spans="1:15">
-      <c r="A70" s="28"/>
-      <c r="B70" s="29" t="s">
-        <v>804</v>
+    </row>
+    <row r="70" customFormat="1" ht="19" customHeight="1" spans="1:15">
+      <c r="A70" s="20"/>
+      <c r="B70" s="15" t="s">
+        <v>800</v>
       </c>
       <c r="C70" s="30" t="s">
         <v>30</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>706</v>
-      </c>
-      <c r="E70" s="31" t="s">
-        <v>805</v>
-      </c>
-      <c r="F70" s="32">
-        <v>9987655678</v>
-      </c>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="53"/>
-      <c r="K70" s="54"/>
-      <c r="L70" s="55"/>
-      <c r="M70" s="56"/>
-      <c r="N70" s="55"/>
-      <c r="O70" s="54"/>
-    </row>
-    <row r="71" s="5" customFormat="1" ht="22" customHeight="1" spans="1:15">
+        <v>576</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>801</v>
+      </c>
+      <c r="F70" s="27">
+        <v>1500</v>
+      </c>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="50"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="51"/>
+      <c r="M70" s="52"/>
+      <c r="N70" s="51"/>
+      <c r="O70" s="42"/>
+    </row>
+    <row r="71" s="5" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A71" s="28"/>
       <c r="B71" s="29" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="C71" s="30" t="s">
         <v>30</v>
@@ -11965,10 +11971,10 @@
         <v>706</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>808</v>
-      </c>
-      <c r="F71" s="32">
-        <v>98765432112</v>
+        <v>803</v>
+      </c>
+      <c r="F71" s="33" t="s">
+        <v>835</v>
       </c>
       <c r="G71" s="31"/>
       <c r="H71" s="31"/>
@@ -11980,37 +11986,37 @@
       <c r="N71" s="55"/>
       <c r="O71" s="54"/>
     </row>
-    <row r="72" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A72" s="20"/>
-      <c r="B72" s="15" t="s">
-        <v>809</v>
+    <row r="72" s="5" customFormat="1" ht="22" customHeight="1" spans="1:15">
+      <c r="A72" s="28"/>
+      <c r="B72" s="29" t="s">
+        <v>805</v>
       </c>
       <c r="C72" s="30" t="s">
         <v>30</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>576</v>
-      </c>
-      <c r="E72" s="25" t="s">
-        <v>810</v>
-      </c>
-      <c r="F72" s="27">
-        <v>1500</v>
-      </c>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="42"/>
-      <c r="L72" s="51"/>
-      <c r="M72" s="52"/>
-      <c r="N72" s="51"/>
-      <c r="O72" s="42"/>
-    </row>
-    <row r="73" ht="23" customHeight="1" spans="1:15">
-      <c r="A73" s="20"/>
+        <v>706</v>
+      </c>
+      <c r="E72" s="31" t="s">
+        <v>806</v>
+      </c>
+      <c r="F72" s="32">
+        <v>9987655678</v>
+      </c>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="53"/>
+      <c r="K72" s="54"/>
+      <c r="L72" s="55"/>
+      <c r="M72" s="56"/>
+      <c r="N72" s="55"/>
+      <c r="O72" s="54"/>
+    </row>
+    <row r="73" s="5" customFormat="1" ht="22" customHeight="1" spans="1:15">
+      <c r="A73" s="28"/>
       <c r="B73" s="29" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C73" s="30" t="s">
         <v>30</v>
@@ -12019,25 +12025,25 @@
         <v>706</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>812</v>
-      </c>
-      <c r="F73" s="34" t="s">
-        <v>835</v>
-      </c>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="42"/>
-      <c r="L73" s="51"/>
-      <c r="M73" s="52"/>
-      <c r="N73" s="51"/>
-      <c r="O73" s="42"/>
+        <v>809</v>
+      </c>
+      <c r="F73" s="32">
+        <v>98765432112</v>
+      </c>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="53"/>
+      <c r="K73" s="54"/>
+      <c r="L73" s="55"/>
+      <c r="M73" s="56"/>
+      <c r="N73" s="55"/>
+      <c r="O73" s="54"/>
     </row>
     <row r="74" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A74" s="20"/>
       <c r="B74" s="15" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C74" s="30" t="s">
         <v>30</v>
@@ -12046,7 +12052,7 @@
         <v>576</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="F74" s="27">
         <v>1500</v>
@@ -12061,22 +12067,22 @@
       <c r="N74" s="51"/>
       <c r="O74" s="42"/>
     </row>
-    <row r="75" ht="19" customHeight="1" spans="1:16">
+    <row r="75" ht="23" customHeight="1" spans="1:15">
       <c r="A75" s="20"/>
-      <c r="B75" s="15" t="s">
-        <v>814</v>
+      <c r="B75" s="29" t="s">
+        <v>812</v>
       </c>
       <c r="C75" s="30" t="s">
         <v>30</v>
       </c>
       <c r="D75" s="31" t="s">
-        <v>576</v>
-      </c>
-      <c r="E75" s="25" t="s">
-        <v>816</v>
-      </c>
-      <c r="F75" s="27">
-        <v>1500</v>
+        <v>706</v>
+      </c>
+      <c r="E75" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="F75" s="34" t="s">
+        <v>836</v>
       </c>
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
@@ -12087,24 +12093,23 @@
       <c r="M75" s="52"/>
       <c r="N75" s="51"/>
       <c r="O75" s="42"/>
-      <c r="P75"/>
-    </row>
-    <row r="76" ht="23" customHeight="1" spans="1:15">
+    </row>
+    <row r="76" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A76" s="20"/>
-      <c r="B76" s="29" t="s">
-        <v>817</v>
+      <c r="B76" s="15" t="s">
+        <v>815</v>
       </c>
       <c r="C76" s="30" t="s">
         <v>30</v>
       </c>
       <c r="D76" s="31" t="s">
-        <v>706</v>
+        <v>576</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>818</v>
-      </c>
-      <c r="F76" s="27" t="s">
-        <v>836</v>
+        <v>816</v>
+      </c>
+      <c r="F76" s="27">
+        <v>1500</v>
       </c>
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
@@ -12116,10 +12121,10 @@
       <c r="N76" s="51"/>
       <c r="O76" s="42"/>
     </row>
-    <row r="77" ht="23" customHeight="1" spans="1:15">
+    <row r="77" ht="19" customHeight="1" spans="1:16">
       <c r="A77" s="20"/>
       <c r="B77" s="15" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="C77" s="30" t="s">
         <v>30</v>
@@ -12128,7 +12133,7 @@
         <v>576</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F77" s="27">
         <v>1500</v>
@@ -12142,35 +12147,39 @@
       <c r="M77" s="52"/>
       <c r="N77" s="51"/>
       <c r="O77" s="42"/>
-    </row>
-    <row r="78" s="2" customFormat="1" spans="2:15">
-      <c r="B78" s="15" t="s">
-        <v>763</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>714</v>
-      </c>
-      <c r="E78" s="22" t="s">
-        <v>764</v>
-      </c>
-      <c r="F78" s="27"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="40"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="18"/>
-      <c r="M78" s="16"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="17"/>
+      <c r="P77"/>
+    </row>
+    <row r="78" ht="23" customHeight="1" spans="1:15">
+      <c r="A78" s="20"/>
+      <c r="B78" s="29" t="s">
+        <v>818</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>819</v>
+      </c>
+      <c r="F78" s="27" t="s">
+        <v>837</v>
+      </c>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="51"/>
+      <c r="M78" s="52"/>
+      <c r="N78" s="51"/>
+      <c r="O78" s="42"/>
     </row>
     <row r="79" ht="23" customHeight="1" spans="1:15">
       <c r="A79" s="20"/>
       <c r="B79" s="15" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C79" s="30" t="s">
         <v>30</v>
@@ -12179,7 +12188,7 @@
         <v>576</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>841</v>
+        <v>822</v>
       </c>
       <c r="F79" s="27">
         <v>1500</v>
@@ -12194,49 +12203,47 @@
       <c r="N79" s="51"/>
       <c r="O79" s="42"/>
     </row>
-    <row r="80" customFormat="1" ht="23" customHeight="1" spans="1:16">
-      <c r="A80" s="20"/>
+    <row r="80" s="2" customFormat="1" spans="2:15">
       <c r="B80" s="15" t="s">
-        <v>822</v>
-      </c>
-      <c r="C80" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D80" s="31" t="s">
-        <v>576</v>
-      </c>
-      <c r="E80" s="25" t="s">
-        <v>842</v>
-      </c>
-      <c r="F80" s="27">
-        <v>1500</v>
-      </c>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="50"/>
-      <c r="K80" s="42"/>
-      <c r="L80" s="51"/>
-      <c r="M80" s="52"/>
-      <c r="N80" s="51"/>
-      <c r="O80" s="42"/>
-      <c r="P80" s="1"/>
-    </row>
-    <row r="81" customFormat="1" ht="23" customHeight="1" spans="1:16">
+        <v>764</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>714</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>765</v>
+      </c>
+      <c r="F80" s="27"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="17"/>
+    </row>
+    <row r="81" ht="23" customHeight="1" spans="1:15">
       <c r="A81" s="20"/>
       <c r="B81" s="15" t="s">
-        <v>843</v>
+        <v>821</v>
       </c>
       <c r="C81" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D81" s="25" t="s">
-        <v>253</v>
+      <c r="D81" s="31" t="s">
+        <v>576</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>844</v>
-      </c>
-      <c r="F81" s="27"/>
+        <v>842</v>
+      </c>
+      <c r="F81" s="27">
+        <v>1500</v>
+      </c>
       <c r="G81" s="25"/>
       <c r="H81" s="25"/>
       <c r="I81" s="25"/>
@@ -12246,15 +12253,24 @@
       <c r="M81" s="52"/>
       <c r="N81" s="51"/>
       <c r="O81" s="42"/>
-      <c r="P81" s="63"/>
-    </row>
-    <row r="82" ht="23" customHeight="1" spans="1:15">
+    </row>
+    <row r="82" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A82" s="20"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
+      <c r="B82" s="15" t="s">
+        <v>823</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="E82" s="25" t="s">
+        <v>843</v>
+      </c>
+      <c r="F82" s="27">
+        <v>1500</v>
+      </c>
       <c r="G82" s="25"/>
       <c r="H82" s="25"/>
       <c r="I82" s="25"/>
@@ -12264,14 +12280,23 @@
       <c r="M82" s="52"/>
       <c r="N82" s="51"/>
       <c r="O82" s="42"/>
-    </row>
-    <row r="83" ht="23" customHeight="1" spans="1:15">
+      <c r="P82" s="1"/>
+    </row>
+    <row r="83" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A83" s="20"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
+      <c r="B83" s="15" t="s">
+        <v>844</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="E83" s="25" t="s">
+        <v>845</v>
+      </c>
+      <c r="F83" s="27"/>
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
       <c r="I83" s="25"/>
@@ -12281,6 +12306,7 @@
       <c r="M83" s="52"/>
       <c r="N83" s="51"/>
       <c r="O83" s="42"/>
+      <c r="P83" s="63"/>
     </row>
     <row r="84" ht="23" customHeight="1" spans="1:15">
       <c r="A84" s="20"/>
@@ -12299,6 +12325,40 @@
       <c r="N84" s="51"/>
       <c r="O84" s="42"/>
     </row>
+    <row r="85" ht="23" customHeight="1" spans="1:15">
+      <c r="A85" s="20"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="50"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="51"/>
+      <c r="M85" s="52"/>
+      <c r="N85" s="51"/>
+      <c r="O85" s="42"/>
+    </row>
+    <row r="86" ht="23" customHeight="1" spans="1:15">
+      <c r="A86" s="20"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="50"/>
+      <c r="K86" s="42"/>
+      <c r="L86" s="51"/>
+      <c r="M86" s="52"/>
+      <c r="N86" s="51"/>
+      <c r="O86" s="42"/>
+    </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -12308,424 +12368,446 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1">
-    <cfRule type="beginsWith" dxfId="0" priority="130" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="136" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="131" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="137" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="132" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="138" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="beginsWith" dxfId="2" priority="99" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="105" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="98" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="104" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N5,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="97" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="103" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="beginsWith" dxfId="0" priority="121" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="127" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N8,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="122" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="128" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N8,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="123" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="129" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N8,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N9,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N9,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N9,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="beginsWith" dxfId="0" priority="70" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="76" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N10,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="71" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="77" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N10,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="72" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="78" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N10,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="beginsWith" dxfId="0" priority="73" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="79" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N14,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="74" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="80" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N14,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="75" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="81" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N14,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="beginsWith" dxfId="0" priority="64" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="70" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N16,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="65" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="71" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N16,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="66" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="72" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N16,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="beginsWith" dxfId="0" priority="67" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="73" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N17,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="68" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="74" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N17,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="69" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="75" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N17,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="beginsWith" dxfId="0" priority="88" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="94" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N20,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="89" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="95" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N20,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="90" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="96" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N20,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26">
-    <cfRule type="beginsWith" dxfId="0" priority="79" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="85" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N26,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="80" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="86" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N26,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="81" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="87" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N26,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32">
-    <cfRule type="beginsWith" dxfId="0" priority="76" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="82" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N32,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="77" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="83" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N32,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="78" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="84" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N32,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35">
-    <cfRule type="beginsWith" dxfId="0" priority="31" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="37" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N35,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N35,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="33" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="39" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N35,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N36">
-    <cfRule type="beginsWith" dxfId="0" priority="16" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="22" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N36,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N36,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="24" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N36,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39">
-    <cfRule type="beginsWith" dxfId="0" priority="43" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="49" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N39,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N39,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="45" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="51" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N39,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41">
-    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="10" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N41,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N41,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N41,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42">
-    <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N42,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N42,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N42,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45">
+    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N45,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N45,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N45,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N46">
+    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N46,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N46,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N46,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N47">
+    <cfRule type="beginsWith" dxfId="0" priority="34" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N47,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N47,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="36" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N47,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N51">
+    <cfRule type="beginsWith" dxfId="0" priority="43" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N51,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N51,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="45" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N51,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N57">
     <cfRule type="beginsWith" dxfId="0" priority="28" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N45,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N57,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N45,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N57,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="30" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N45,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N57,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N49">
-    <cfRule type="beginsWith" dxfId="0" priority="37" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N49,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N49,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="39" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N49,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N60">
+    <cfRule type="beginsWith" dxfId="0" priority="40" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N60,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="41" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N60,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="42" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N60,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N55">
-    <cfRule type="beginsWith" dxfId="0" priority="22" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N55,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N55,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="24" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N55,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N58">
-    <cfRule type="beginsWith" dxfId="0" priority="34" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N58,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N58,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="36" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N58,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N59">
-    <cfRule type="beginsWith" dxfId="0" priority="19" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N59,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N59,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="21" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N59,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N62">
-    <cfRule type="beginsWith" dxfId="0" priority="58" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N62,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="59" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N62,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="60" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N62,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N61">
+    <cfRule type="beginsWith" dxfId="0" priority="25" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N61,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N61,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="27" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N61,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N64">
-    <cfRule type="beginsWith" dxfId="0" priority="10" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="64" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N64,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="65" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N64,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="66" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N64,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N65">
-    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N65,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N65,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N65,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N66">
+    <cfRule type="beginsWith" dxfId="0" priority="16" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N66,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N66,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N66,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N68">
-    <cfRule type="beginsWith" dxfId="0" priority="55" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N68,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N68,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="57" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N68,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N67">
+    <cfRule type="beginsWith" dxfId="0" priority="19" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N67,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N67,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="21" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N67,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N72">
-    <cfRule type="beginsWith" dxfId="0" priority="52" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N72,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N72,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="54" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N72,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N70">
+    <cfRule type="beginsWith" dxfId="0" priority="61" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N70,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="62" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N70,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="63" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N70,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N78">
-    <cfRule type="beginsWith" dxfId="0" priority="25" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N78,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N78,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="27" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N78,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N74">
+    <cfRule type="beginsWith" dxfId="0" priority="58" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N74,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="59" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N74,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="60" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N74,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N80">
+    <cfRule type="beginsWith" dxfId="0" priority="31" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N80,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N80,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="33" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N80,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N4">
-    <cfRule type="beginsWith" dxfId="0" priority="124" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="130" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N3,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="125" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="131" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N3,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="126" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="132" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N3,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N7">
-    <cfRule type="beginsWith" dxfId="2" priority="96" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="102" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N6,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="95" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="101" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N6,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="94" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="100" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N6,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:N22">
-    <cfRule type="beginsWith" dxfId="0" priority="82" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="88" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N21,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="83" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="89" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N21,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="84" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="90" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N21,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:N29">
-    <cfRule type="beginsWith" dxfId="0" priority="85" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="91" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N28,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="86" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="92" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N28,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="87" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="93" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N28,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N51:N52">
-    <cfRule type="beginsWith" dxfId="0" priority="40" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N51,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="41" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N51,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="42" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N51,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N53:N54">
+    <cfRule type="beginsWith" dxfId="0" priority="46" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N53,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="47" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N53,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="48" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N53,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N74:N75">
-    <cfRule type="beginsWith" dxfId="0" priority="49" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N74,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N74,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="51" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N74,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N76:N77">
+    <cfRule type="beginsWith" dxfId="0" priority="55" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N76,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N76,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="57" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N76,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N82:N84">
-    <cfRule type="beginsWith" dxfId="0" priority="127" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N82,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="128" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N82,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="129" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N82,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N84:N86">
+    <cfRule type="beginsWith" dxfId="0" priority="133" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N84,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="134" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N84,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="135" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N84,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27 N30:N31 N33:N34">
-    <cfRule type="beginsWith" dxfId="0" priority="91" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="97" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N27,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="92" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="98" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N27,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="93" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="99" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N27,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N50 N56:N57 N53:N54">
-    <cfRule type="beginsWith" dxfId="0" priority="46" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N50,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="47" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N50,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="48" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N50,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N52 N55:N56 N58:N59">
+    <cfRule type="beginsWith" dxfId="0" priority="52" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N52,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N52,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="54" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N52,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N73 N79:N81 N76:N77">
-    <cfRule type="beginsWith" dxfId="0" priority="61" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N73,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="62" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N73,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="63" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N73,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N75 N78:N79 N81:N83">
+    <cfRule type="beginsWith" dxfId="0" priority="67" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N75,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="68" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N75,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="69" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N75,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C14 C16 C17 C32 C34 C35 C36 C39 C41 C42 C55 C57 C58 C59 C62 C64 C65 C78 C82:C84">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C14 C16 C17 C32 C34 C35 C36 C39 C41 C42 C57 C59 C60 C61 C64 C66 C67 C80 C84:C86">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D12 D14 D15 D16 D17 D32 D34 D35 D36 D39 D40 D41 D42 D55 D57 D58 D59 D62 D63 D64 D65 D78 D81 D82:D84">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D12 D14 D15 D16 D17 D32 D34 D35 D36 D39 D40 D41 D42 D57 D59 D60 D61 D64 D65 D66 D67 D80 D83 D84:D86">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F23" r:id="rId1" display="${CustomerName}_[NUMBER(${num})=&gt;randomDigits(3)]@tempmail.com"/>
-    <hyperlink ref="F69" r:id="rId1" display="sampleCustomeEmail@tempmail.com"/>
-    <hyperlink ref="F46" r:id="rId1" display="sampleCustomeEmail@tempmail.com"/>
+    <hyperlink ref="F71" r:id="rId1" display="sampleCustomeEmail@tempmail.com"/>
+    <hyperlink ref="F48" r:id="rId1" display="sampleCustomeEmail@tempmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -12787,7 +12869,7 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="10" t="s">
-        <v>732</v>
+        <v>846</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -12868,10 +12950,10 @@
     </row>
     <row r="5" s="4" customFormat="1" ht="28" spans="1:15">
       <c r="A5" s="20" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>30</v>
@@ -12880,7 +12962,7 @@
         <v>576</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="F5" s="23">
         <v>2000</v>
@@ -12898,7 +12980,7 @@
     <row r="6" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A6" s="20"/>
       <c r="B6" s="15" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>30</v>
@@ -12907,7 +12989,7 @@
         <v>576</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F6" s="23">
         <v>2000</v>
@@ -12924,7 +13006,7 @@
     </row>
     <row r="7" s="5" customFormat="1" ht="14.5" spans="2:15">
       <c r="B7" s="26" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>30</v>
@@ -12933,7 +13015,7 @@
         <v>576</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F7" s="27">
         <v>1500</v>
@@ -12951,7 +13033,7 @@
     <row r="8" s="5" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A8" s="28"/>
       <c r="B8" s="29" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>30</v>
@@ -12960,10 +13042,10 @@
         <v>706</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G8" s="31"/>
       <c r="H8" s="31"/>
@@ -12978,7 +13060,7 @@
     <row r="9" s="5" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A9" s="28"/>
       <c r="B9" s="29" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>5</v>
@@ -12987,10 +13069,10 @@
         <v>471</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
@@ -13005,7 +13087,7 @@
     <row r="10" s="5" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A10" s="28"/>
       <c r="B10" s="29" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>30</v>
@@ -13014,10 +13096,10 @@
         <v>706</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
@@ -13032,7 +13114,7 @@
     <row r="11" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="14"/>
       <c r="B11" s="15" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>30</v>
@@ -13041,10 +13123,10 @@
         <v>706</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
@@ -13059,7 +13141,7 @@
     <row r="12" s="6" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A12" s="28"/>
       <c r="B12" s="15" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>30</v>
@@ -13068,10 +13150,10 @@
         <v>706</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
@@ -13085,7 +13167,7 @@
     </row>
     <row r="13" s="2" customFormat="1" spans="2:15">
       <c r="B13" s="15" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>5</v>
@@ -13094,16 +13176,16 @@
         <v>486</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="I13" s="22"/>
       <c r="J13" s="40"/>
@@ -13116,7 +13198,7 @@
     <row r="14" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>30</v>
@@ -13125,7 +13207,7 @@
         <v>576</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F14" s="27">
         <v>2000</v>
@@ -13143,7 +13225,7 @@
     <row r="15" s="6" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A15" s="28"/>
       <c r="B15" s="29" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>30</v>
@@ -13152,10 +13234,10 @@
         <v>706</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
@@ -13170,7 +13252,7 @@
     <row r="16" s="6" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A16" s="28"/>
       <c r="B16" s="29" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>30</v>
@@ -13179,10 +13261,10 @@
         <v>706</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
@@ -13197,7 +13279,7 @@
     <row r="17" s="5" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A17" s="28"/>
       <c r="B17" s="15" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C17" s="30" t="s">
         <v>30</v>
@@ -13206,10 +13288,10 @@
         <v>692</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
@@ -13224,7 +13306,7 @@
     <row r="18" s="5" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A18" s="28"/>
       <c r="B18" s="15" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>30</v>
@@ -13233,10 +13315,10 @@
         <v>692</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -13251,7 +13333,7 @@
     <row r="19" s="5" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A19" s="28"/>
       <c r="B19" s="15" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>30</v>
@@ -13260,7 +13342,7 @@
         <v>576</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F19" s="27">
         <v>1000</v>
@@ -13278,7 +13360,7 @@
     <row r="20" s="5" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A20" s="28"/>
       <c r="B20" s="29" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>30</v>
@@ -13287,10 +13369,10 @@
         <v>706</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
@@ -13305,7 +13387,7 @@
     <row r="21" s="5" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A21" s="28"/>
       <c r="B21" s="29" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C21" s="30" t="s">
         <v>30</v>
@@ -13314,10 +13396,10 @@
         <v>706</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
@@ -13332,7 +13414,7 @@
     <row r="22" s="5" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A22" s="28"/>
       <c r="B22" s="29" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C22" s="30" t="s">
         <v>30</v>
@@ -13341,10 +13423,10 @@
         <v>706</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
@@ -13359,7 +13441,7 @@
     <row r="23" s="5" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A23" s="28"/>
       <c r="B23" s="15" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C23" s="30" t="s">
         <v>30</v>
@@ -13368,7 +13450,7 @@
         <v>576</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F23" s="27">
         <v>1000</v>
@@ -13386,7 +13468,7 @@
     <row r="24" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="20"/>
       <c r="B24" s="29" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>30</v>
@@ -13395,10 +13477,10 @@
         <v>706</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
@@ -13413,7 +13495,7 @@
     <row r="25" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A25" s="20"/>
       <c r="B25" s="15" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>30</v>
@@ -13422,7 +13504,7 @@
         <v>576</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F25" s="27">
         <v>1500</v>
@@ -13440,7 +13522,7 @@
     <row r="26" s="6" customFormat="1" ht="19" customHeight="1" spans="1:16">
       <c r="A26" s="20"/>
       <c r="B26" s="15" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>30</v>
@@ -13449,7 +13531,7 @@
         <v>576</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F26" s="27">
         <v>1500</v>
@@ -13467,7 +13549,7 @@
     </row>
     <row r="27" s="2" customFormat="1" ht="14.5" spans="2:15">
       <c r="B27" s="15" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>30</v>
@@ -13476,7 +13558,7 @@
         <v>714</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F27" s="27"/>
       <c r="G27" s="22"/>
@@ -13492,7 +13574,7 @@
     <row r="28" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="20"/>
       <c r="B28" s="29" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C28" s="30" t="s">
         <v>30</v>
@@ -13501,10 +13583,10 @@
         <v>706</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
@@ -13519,7 +13601,7 @@
     <row r="29" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="20"/>
       <c r="B29" s="15" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>30</v>
@@ -13528,7 +13610,7 @@
         <v>576</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F29" s="27">
         <v>3000</v>
@@ -13545,7 +13627,7 @@
     </row>
     <row r="30" s="2" customFormat="1" ht="14.5" spans="2:15">
       <c r="B30" s="15" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>30</v>
@@ -13554,7 +13636,7 @@
         <v>714</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="22"/>
@@ -13570,7 +13652,7 @@
     <row r="31" s="6" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="20"/>
       <c r="B31" s="15" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>30</v>
@@ -13579,7 +13661,7 @@
         <v>576</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F31" s="27">
         <v>1500</v>
@@ -13597,7 +13679,7 @@
     <row r="32" s="6" customFormat="1" ht="28" spans="1:15">
       <c r="A32" s="20"/>
       <c r="B32" s="26" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>30</v>
@@ -13606,7 +13688,7 @@
         <v>253</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="25"/>
@@ -13620,10 +13702,10 @@
     </row>
     <row r="33" s="6" customFormat="1" spans="1:15">
       <c r="A33" s="14" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C33" s="24" t="s">
         <v>30</v>
@@ -13632,7 +13714,7 @@
         <v>363</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="25"/>
@@ -13646,7 +13728,7 @@
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>30</v>
@@ -13655,10 +13737,10 @@
         <v>576</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="G34" s="25"/>
       <c r="H34" s="22"/>
@@ -13668,7 +13750,7 @@
     <row r="35" ht="28" spans="1:10">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>30</v>
@@ -13677,7 +13759,7 @@
         <v>363</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="25"/>
@@ -13688,7 +13770,7 @@
     <row r="36" spans="1:10">
       <c r="A36" s="14"/>
       <c r="B36" s="36" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C36" s="37" t="s">
         <v>30</v>
@@ -13697,7 +13779,7 @@
         <v>363</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="F36" s="38"/>
       <c r="G36" s="25"/>
@@ -13708,7 +13790,7 @@
     <row r="37" spans="1:10">
       <c r="A37" s="14"/>
       <c r="B37" s="15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>30</v>
@@ -13717,7 +13799,7 @@
         <v>714</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F37" s="39"/>
       <c r="G37" s="25"/>
@@ -13728,7 +13810,7 @@
     <row r="38" spans="1:10">
       <c r="A38" s="14"/>
       <c r="B38" s="36" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>30</v>
@@ -13737,7 +13819,7 @@
         <v>363</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="F38" s="38"/>
       <c r="G38" s="25"/>
@@ -13748,7 +13830,7 @@
     <row r="39" spans="1:10">
       <c r="A39" s="14"/>
       <c r="B39" s="15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>30</v>
@@ -13757,7 +13839,7 @@
         <v>714</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F39" s="38"/>
       <c r="G39" s="25"/>
@@ -13768,7 +13850,7 @@
     <row r="40" spans="1:10">
       <c r="A40" s="14"/>
       <c r="B40" s="36" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C40" s="37" t="s">
         <v>30</v>
@@ -13777,7 +13859,7 @@
         <v>363</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="F40" s="38"/>
       <c r="G40" s="25"/>
@@ -13788,7 +13870,7 @@
     <row r="41" ht="28" spans="1:10">
       <c r="A41" s="14"/>
       <c r="B41" s="15" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>5</v>
@@ -13797,16 +13879,16 @@
         <v>486</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -13814,7 +13896,7 @@
     <row r="42" spans="1:10">
       <c r="A42" s="14"/>
       <c r="B42" s="15" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>30</v>
@@ -13823,7 +13905,7 @@
         <v>363</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="F42" s="27"/>
       <c r="G42" s="25"/>
@@ -13834,7 +13916,7 @@
     <row r="43" spans="1:10">
       <c r="A43" s="14"/>
       <c r="B43" s="15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>30</v>
@@ -13843,7 +13925,7 @@
         <v>714</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F43" s="38"/>
       <c r="G43" s="25"/>
@@ -13854,7 +13936,7 @@
     <row r="44" ht="28" spans="1:10">
       <c r="A44" s="20"/>
       <c r="B44" s="15" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C44" s="21" t="s">
         <v>5</v>
@@ -13863,16 +13945,16 @@
         <v>486</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="F44" s="34" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="I44" s="25"/>
       <c r="J44" s="50"/>
@@ -13880,7 +13962,7 @@
     <row r="45" ht="28" spans="1:10">
       <c r="A45" s="14"/>
       <c r="B45" s="15" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>30</v>
@@ -13889,7 +13971,7 @@
         <v>253</v>
       </c>
       <c r="E45" s="40" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="F45" s="34"/>
       <c r="G45" s="25"/>
@@ -13899,10 +13981,10 @@
     </row>
     <row r="46" ht="28" spans="1:10">
       <c r="A46" s="20" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C46" s="24" t="s">
         <v>30</v>
@@ -13911,7 +13993,7 @@
         <v>363</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
@@ -13922,7 +14004,7 @@
     <row r="47" ht="28" spans="1:10">
       <c r="A47" s="20"/>
       <c r="B47" s="26" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="C47" s="24" t="s">
         <v>30</v>
@@ -13931,13 +14013,13 @@
         <v>650</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
@@ -13946,7 +14028,7 @@
     <row r="48" spans="1:10">
       <c r="A48" s="14"/>
       <c r="B48" s="26" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C48" s="21" t="s">
         <v>5</v>
@@ -13955,10 +14037,10 @@
         <v>49</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G48" s="25"/>
       <c r="H48" s="22"/>
@@ -13968,7 +14050,7 @@
     <row r="49" spans="1:10">
       <c r="A49" s="14"/>
       <c r="B49" s="15" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="C49" s="21" t="s">
         <v>30</v>
@@ -13977,10 +14059,10 @@
         <v>706</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="G49" s="25"/>
       <c r="H49" s="22"/>
@@ -13990,7 +14072,7 @@
     <row r="50" spans="1:10">
       <c r="A50" s="14"/>
       <c r="B50" s="15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C50" s="21" t="s">
         <v>30</v>
@@ -13999,7 +14081,7 @@
         <v>714</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F50" s="39"/>
       <c r="G50" s="25"/>
@@ -14010,7 +14092,7 @@
     <row r="51" spans="1:10">
       <c r="A51" s="14"/>
       <c r="B51" s="15" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C51" s="21" t="s">
         <v>30</v>
@@ -14019,10 +14101,10 @@
         <v>706</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="G51" s="25"/>
       <c r="H51" s="22"/>
@@ -14032,7 +14114,7 @@
     <row r="52" spans="1:10">
       <c r="A52" s="14"/>
       <c r="B52" s="15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C52" s="21" t="s">
         <v>30</v>
@@ -14041,7 +14123,7 @@
         <v>714</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F52" s="39"/>
       <c r="G52" s="25"/>
@@ -14052,7 +14134,7 @@
     <row r="53" spans="1:10">
       <c r="A53" s="14"/>
       <c r="B53" s="15" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C53" s="21" t="s">
         <v>30</v>
@@ -14061,10 +14143,10 @@
         <v>706</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="22"/>
@@ -14074,7 +14156,7 @@
     <row r="54" spans="1:10">
       <c r="A54" s="14"/>
       <c r="B54" s="15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C54" s="21" t="s">
         <v>30</v>
@@ -14083,7 +14165,7 @@
         <v>714</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F54" s="39"/>
       <c r="G54" s="25"/>
@@ -14094,7 +14176,7 @@
     <row r="55" spans="1:10">
       <c r="A55" s="20"/>
       <c r="B55" s="15" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C55" s="21" t="s">
         <v>30</v>
@@ -14103,10 +14185,10 @@
         <v>706</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
@@ -14116,7 +14198,7 @@
     <row r="56" spans="1:10">
       <c r="A56" s="14"/>
       <c r="B56" s="15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C56" s="21" t="s">
         <v>30</v>
@@ -14125,7 +14207,7 @@
         <v>714</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F56" s="39"/>
       <c r="G56" s="25"/>
@@ -14136,7 +14218,7 @@
     <row r="57" spans="1:10">
       <c r="A57" s="20"/>
       <c r="B57" s="26" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="C57" s="24" t="s">
         <v>30</v>
@@ -14145,10 +14227,10 @@
         <v>576</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
@@ -14158,7 +14240,7 @@
     <row r="58" spans="1:10">
       <c r="A58" s="14"/>
       <c r="B58" s="15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C58" s="21" t="s">
         <v>30</v>
@@ -14167,7 +14249,7 @@
         <v>714</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F58" s="39"/>
       <c r="G58" s="25"/>
@@ -14178,7 +14260,7 @@
     <row r="59" spans="1:10">
       <c r="A59" s="20"/>
       <c r="B59" s="26" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C59" s="24" t="s">
         <v>30</v>
@@ -14187,10 +14269,10 @@
         <v>576</v>
       </c>
       <c r="E59" s="25" t="s">
+        <v>893</v>
+      </c>
+      <c r="F59" s="25" t="s">
         <v>891</v>
-      </c>
-      <c r="F59" s="25" t="s">
-        <v>889</v>
       </c>
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
@@ -14200,7 +14282,7 @@
     <row r="60" spans="1:10">
       <c r="A60" s="20"/>
       <c r="B60" s="26" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C60" s="21" t="s">
         <v>5</v>
@@ -14209,16 +14291,16 @@
         <v>486</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="F60" s="34" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="I60" s="25"/>
       <c r="J60" s="50"/>
@@ -14226,7 +14308,7 @@
     <row r="61" spans="1:10">
       <c r="A61" s="20"/>
       <c r="B61" s="26" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C61" s="21" t="s">
         <v>30</v>
@@ -14235,7 +14317,7 @@
         <v>253</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="F61" s="34"/>
       <c r="G61" s="5"/>
@@ -14246,7 +14328,7 @@
     <row r="62" ht="28" spans="1:10">
       <c r="A62" s="20"/>
       <c r="B62" s="26" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="C62" s="24" t="s">
         <v>30</v>
@@ -14255,13 +14337,13 @@
         <v>650</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
@@ -14270,7 +14352,7 @@
     <row r="63" spans="1:10">
       <c r="A63" s="20"/>
       <c r="B63" s="26" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C63" s="21" t="s">
         <v>5</v>
@@ -14279,10 +14361,10 @@
         <v>49</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
@@ -14292,7 +14374,7 @@
     <row r="64" ht="28" spans="1:10">
       <c r="A64" s="20"/>
       <c r="B64" s="26" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C64" s="24" t="s">
         <v>30</v>
@@ -14301,13 +14383,13 @@
         <v>650</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="H64" s="25"/>
       <c r="I64" s="25"/>
@@ -14316,7 +14398,7 @@
     <row r="65" ht="28" spans="1:10">
       <c r="A65" s="20"/>
       <c r="B65" s="26" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="C65" s="21" t="s">
         <v>5</v>
@@ -14325,10 +14407,10 @@
         <v>49</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
@@ -14338,7 +14420,7 @@
     <row r="66" ht="28" spans="1:10">
       <c r="A66" s="20"/>
       <c r="B66" s="26" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C66" s="24" t="s">
         <v>30</v>
@@ -14347,13 +14429,13 @@
         <v>650</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>
@@ -14362,7 +14444,7 @@
     <row r="67" spans="1:10">
       <c r="A67" s="20"/>
       <c r="B67" s="26" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="C67" s="21" t="s">
         <v>5</v>
@@ -14371,10 +14453,10 @@
         <v>49</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
@@ -14384,7 +14466,7 @@
     <row r="68" ht="28" spans="1:10">
       <c r="A68" s="20"/>
       <c r="B68" s="26" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="C68" s="24" t="s">
         <v>30</v>
@@ -14393,13 +14475,13 @@
         <v>650</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="H68" s="25"/>
       <c r="I68" s="25"/>
@@ -14408,7 +14490,7 @@
     <row r="69" spans="1:10">
       <c r="A69" s="20"/>
       <c r="B69" s="26" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C69" s="21" t="s">
         <v>5</v>
@@ -14417,10 +14499,10 @@
         <v>49</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
@@ -14430,7 +14512,7 @@
     <row r="70" spans="1:10">
       <c r="A70" s="20"/>
       <c r="B70" s="26" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="C70" s="21" t="s">
         <v>30</v>
@@ -14439,7 +14521,7 @@
         <v>363</v>
       </c>
       <c r="E70" s="25" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="F70" s="22"/>
       <c r="G70" s="25"/>
@@ -14449,10 +14531,10 @@
     </row>
     <row r="71" ht="28" spans="1:10">
       <c r="A71" s="20" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C71" s="24" t="s">
         <v>30</v>
@@ -14461,7 +14543,7 @@
         <v>363</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="F71" s="25"/>
       <c r="G71" s="25"/>
@@ -14472,7 +14554,7 @@
     <row r="72" spans="1:10">
       <c r="A72" s="20"/>
       <c r="B72" s="26" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C72" s="24" t="s">
         <v>30</v>
@@ -14481,10 +14563,10 @@
         <v>706</v>
       </c>
       <c r="E72" s="25" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
@@ -14494,7 +14576,7 @@
     <row r="73" spans="1:10">
       <c r="A73" s="14"/>
       <c r="B73" s="15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C73" s="21" t="s">
         <v>30</v>
@@ -14503,7 +14585,7 @@
         <v>714</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F73" s="39"/>
       <c r="G73" s="25"/>
@@ -14514,7 +14596,7 @@
     <row r="74" spans="1:10">
       <c r="A74" s="20"/>
       <c r="B74" s="26" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="C74" s="21" t="s">
         <v>30</v>
@@ -14523,10 +14605,10 @@
         <v>692</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
@@ -14536,7 +14618,7 @@
     <row r="75" spans="1:10">
       <c r="A75" s="14"/>
       <c r="B75" s="15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C75" s="21" t="s">
         <v>30</v>
@@ -14545,7 +14627,7 @@
         <v>714</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F75" s="39"/>
       <c r="G75" s="25"/>
@@ -14556,7 +14638,7 @@
     <row r="76" spans="1:10">
       <c r="A76" s="20"/>
       <c r="B76" s="26" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="C76" s="24" t="s">
         <v>30</v>
@@ -14565,10 +14647,10 @@
         <v>706</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
@@ -14578,7 +14660,7 @@
     <row r="77" spans="1:10">
       <c r="A77" s="14"/>
       <c r="B77" s="15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C77" s="21" t="s">
         <v>30</v>
@@ -14587,7 +14669,7 @@
         <v>714</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F77" s="39"/>
       <c r="G77" s="25"/>
@@ -14598,7 +14680,7 @@
     <row r="78" spans="1:10">
       <c r="A78" s="20"/>
       <c r="B78" s="26" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="C78" s="24" t="s">
         <v>30</v>
@@ -14607,10 +14689,10 @@
         <v>576</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
@@ -14620,7 +14702,7 @@
     <row r="79" spans="1:10">
       <c r="A79" s="14"/>
       <c r="B79" s="15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C79" s="21" t="s">
         <v>30</v>
@@ -14629,7 +14711,7 @@
         <v>714</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F79" s="39"/>
       <c r="G79" s="25"/>
@@ -14640,7 +14722,7 @@
     <row r="80" spans="1:10">
       <c r="A80" s="20"/>
       <c r="B80" s="26" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C80" s="24" t="s">
         <v>30</v>
@@ -14649,10 +14731,10 @@
         <v>576</v>
       </c>
       <c r="E80" s="25" t="s">
+        <v>893</v>
+      </c>
+      <c r="F80" s="25" t="s">
         <v>891</v>
-      </c>
-      <c r="F80" s="25" t="s">
-        <v>889</v>
       </c>
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
@@ -14662,7 +14744,7 @@
     <row r="81" spans="1:10">
       <c r="A81" s="20"/>
       <c r="B81" s="26" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C81" s="21" t="s">
         <v>5</v>
@@ -14671,16 +14753,16 @@
         <v>486</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="F81" s="34" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="I81" s="25"/>
       <c r="J81" s="50"/>
@@ -14688,7 +14770,7 @@
     <row r="82" spans="1:10">
       <c r="A82" s="20"/>
       <c r="B82" s="26" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C82" s="21" t="s">
         <v>30</v>
@@ -14697,7 +14779,7 @@
         <v>253</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="F82" s="34"/>
       <c r="G82" s="5"/>
@@ -14708,7 +14790,7 @@
     <row r="83" ht="28" spans="1:10">
       <c r="A83" s="20"/>
       <c r="B83" s="26" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="C83" s="24" t="s">
         <v>30</v>
@@ -14717,13 +14799,13 @@
         <v>650</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="F83" s="25" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="G83" s="25" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="H83" s="25"/>
       <c r="I83" s="25"/>
@@ -14732,7 +14814,7 @@
     <row r="84" spans="1:10">
       <c r="A84" s="20"/>
       <c r="B84" s="26" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="C84" s="21" t="s">
         <v>5</v>
@@ -14741,10 +14823,10 @@
         <v>49</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="G84" s="25"/>
       <c r="H84" s="25"/>
@@ -14754,7 +14836,7 @@
     <row r="85" ht="28" spans="1:10">
       <c r="A85" s="20"/>
       <c r="B85" s="26" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="C85" s="24" t="s">
         <v>30</v>
@@ -14763,13 +14845,13 @@
         <v>650</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="F85" s="25" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="G85" s="25" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="H85" s="25"/>
       <c r="I85" s="25"/>
@@ -14778,7 +14860,7 @@
     <row r="86" spans="1:10">
       <c r="A86" s="20"/>
       <c r="B86" s="26" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="C86" s="21" t="s">
         <v>5</v>
@@ -14787,10 +14869,10 @@
         <v>49</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="F86" s="22" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
@@ -14800,7 +14882,7 @@
     <row r="87" ht="28" spans="1:10">
       <c r="A87" s="20"/>
       <c r="B87" s="26" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C87" s="24" t="s">
         <v>30</v>
@@ -14809,13 +14891,13 @@
         <v>650</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="G87" s="25" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="H87" s="25"/>
       <c r="I87" s="25"/>
@@ -14824,7 +14906,7 @@
     <row r="88" spans="1:10">
       <c r="A88" s="20"/>
       <c r="B88" s="26" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C88" s="21" t="s">
         <v>5</v>
@@ -14833,10 +14915,10 @@
         <v>49</v>
       </c>
       <c r="E88" s="22" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="F88" s="22" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="G88" s="25"/>
       <c r="H88" s="25"/>
@@ -14846,7 +14928,7 @@
     <row r="89" spans="1:10">
       <c r="A89" s="20"/>
       <c r="B89" s="26" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C89" s="21" t="s">
         <v>30</v>
@@ -14855,7 +14937,7 @@
         <v>363</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="F89" s="22"/>
       <c r="G89" s="25"/>
@@ -14865,10 +14947,10 @@
     </row>
     <row r="90" ht="28" spans="1:10">
       <c r="A90" s="20" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="C90" s="24" t="s">
         <v>30</v>
@@ -14877,7 +14959,7 @@
         <v>363</v>
       </c>
       <c r="E90" s="25" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="F90" s="25"/>
       <c r="G90" s="25"/>
@@ -14888,7 +14970,7 @@
     <row r="91" spans="1:10">
       <c r="A91" s="20"/>
       <c r="B91" s="26" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C91" s="24" t="s">
         <v>30</v>
@@ -14897,10 +14979,10 @@
         <v>706</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="G91" s="25"/>
       <c r="H91" s="25"/>
@@ -14910,7 +14992,7 @@
     <row r="92" spans="1:10">
       <c r="A92" s="20"/>
       <c r="B92" s="26" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="C92" s="24" t="s">
         <v>30</v>
@@ -14919,7 +15001,7 @@
         <v>363</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="F92" s="25"/>
       <c r="G92" s="25"/>
@@ -14930,7 +15012,7 @@
     <row r="93" spans="1:10">
       <c r="A93" s="14"/>
       <c r="B93" s="15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C93" s="21" t="s">
         <v>30</v>
@@ -14939,7 +15021,7 @@
         <v>714</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F93" s="39"/>
       <c r="G93" s="25"/>
@@ -14950,7 +15032,7 @@
     <row r="94" spans="1:10">
       <c r="A94" s="20"/>
       <c r="B94" s="26" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="C94" s="24" t="s">
         <v>30</v>
@@ -14959,7 +15041,7 @@
         <v>253</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="F94" s="25"/>
       <c r="G94" s="25"/>
@@ -14970,7 +15052,7 @@
     <row r="95" spans="1:10">
       <c r="A95" s="14"/>
       <c r="B95" s="15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C95" s="21" t="s">
         <v>30</v>
@@ -14979,7 +15061,7 @@
         <v>714</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F95" s="39"/>
       <c r="G95" s="25"/>
@@ -14990,7 +15072,7 @@
     <row r="96" spans="1:10">
       <c r="A96" s="20"/>
       <c r="B96" s="26" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C96" s="24" t="s">
         <v>30</v>
@@ -14999,7 +15081,7 @@
         <v>363</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
@@ -15010,7 +15092,7 @@
     <row r="97" spans="1:10">
       <c r="A97" s="20"/>
       <c r="B97" s="26" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="C97" s="24" t="s">
         <v>30</v>
@@ -15019,13 +15101,13 @@
         <v>650</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="F97" s="25" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="G97" s="25" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="H97" s="25"/>
       <c r="I97" s="25"/>
@@ -15034,7 +15116,7 @@
     <row r="98" spans="1:10">
       <c r="A98" s="20"/>
       <c r="B98" s="26" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="C98" s="24" t="s">
         <v>5</v>
@@ -15043,7 +15125,7 @@
         <v>308</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="F98" s="25"/>
       <c r="G98" s="25"/>
@@ -15054,7 +15136,7 @@
     <row r="99" spans="1:10">
       <c r="A99" s="20"/>
       <c r="B99" s="26" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="C99" s="24" t="s">
         <v>30</v>
@@ -15063,10 +15145,10 @@
         <v>692</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="F99" s="25" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="G99" s="25"/>
       <c r="H99" s="25"/>
@@ -15076,7 +15158,7 @@
     <row r="100" spans="1:10">
       <c r="A100" s="20"/>
       <c r="B100" s="26" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C100" s="24" t="s">
         <v>30</v>
@@ -15085,10 +15167,10 @@
         <v>692</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="F100" s="25" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="G100" s="25"/>
       <c r="H100" s="25"/>
@@ -15098,7 +15180,7 @@
     <row r="101" spans="1:10">
       <c r="A101" s="20"/>
       <c r="B101" s="26" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="C101" s="24" t="s">
         <v>30</v>
@@ -15107,10 +15189,10 @@
         <v>706</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="F101" s="25" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="G101" s="25"/>
       <c r="H101" s="25"/>
@@ -15120,7 +15202,7 @@
     <row r="102" spans="1:10">
       <c r="A102" s="20"/>
       <c r="B102" s="26" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="C102" s="24" t="s">
         <v>30</v>
@@ -15129,10 +15211,10 @@
         <v>576</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="F102" s="25" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="G102" s="25"/>
       <c r="H102" s="25"/>
@@ -15141,7 +15223,7 @@
     </row>
     <row r="103" s="2" customFormat="1" ht="14.5" spans="2:15">
       <c r="B103" s="15" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C103" s="21" t="s">
         <v>30</v>
@@ -15150,7 +15232,7 @@
         <v>714</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F103" s="27"/>
       <c r="G103" s="22"/>
@@ -15166,7 +15248,7 @@
     <row r="104" spans="1:10">
       <c r="A104" s="20"/>
       <c r="B104" s="26" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C104" s="24" t="s">
         <v>30</v>
@@ -15175,10 +15257,10 @@
         <v>576</v>
       </c>
       <c r="E104" s="25" t="s">
+        <v>893</v>
+      </c>
+      <c r="F104" s="25" t="s">
         <v>891</v>
-      </c>
-      <c r="F104" s="25" t="s">
-        <v>889</v>
       </c>
       <c r="G104" s="25"/>
       <c r="H104" s="25"/>
@@ -15188,7 +15270,7 @@
     <row r="105" spans="1:10">
       <c r="A105" s="20"/>
       <c r="B105" s="26" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C105" s="21" t="s">
         <v>5</v>
@@ -15197,16 +15279,16 @@
         <v>486</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="F105" s="34" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="I105" s="25"/>
       <c r="J105" s="50"/>
@@ -15214,7 +15296,7 @@
     <row r="106" spans="1:10">
       <c r="A106" s="20"/>
       <c r="B106" s="26" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C106" s="21" t="s">
         <v>30</v>
@@ -15223,7 +15305,7 @@
         <v>253</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="F106" s="34"/>
       <c r="G106" s="5"/>
@@ -15234,7 +15316,7 @@
     <row r="107" ht="28" spans="1:10">
       <c r="A107" s="20"/>
       <c r="B107" s="26" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="C107" s="24" t="s">
         <v>30</v>
@@ -15243,13 +15325,13 @@
         <v>650</v>
       </c>
       <c r="E107" s="25" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="F107" s="25" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="G107" s="25" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="H107" s="25"/>
       <c r="I107" s="25"/>
@@ -15258,7 +15340,7 @@
     <row r="108" spans="1:10">
       <c r="A108" s="20"/>
       <c r="B108" s="26" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C108" s="21" t="s">
         <v>5</v>
@@ -15267,10 +15349,10 @@
         <v>49</v>
       </c>
       <c r="E108" s="22" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="F108" s="22" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="G108" s="25"/>
       <c r="H108" s="25"/>
@@ -15280,7 +15362,7 @@
     <row r="109" spans="1:10">
       <c r="A109" s="20"/>
       <c r="B109" s="26" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="C109" s="21" t="s">
         <v>30</v>
@@ -15289,7 +15371,7 @@
         <v>363</v>
       </c>
       <c r="E109" s="25" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="F109" s="22"/>
       <c r="G109" s="25"/>
@@ -15300,7 +15382,7 @@
     <row r="110" spans="1:10">
       <c r="A110" s="20"/>
       <c r="B110" s="26" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="C110" s="24" t="s">
         <v>30</v>
@@ -15309,10 +15391,10 @@
         <v>366</v>
       </c>
       <c r="E110" s="25" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="F110" s="25" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="G110" s="25"/>
       <c r="H110" s="25"/>
@@ -15321,10 +15403,10 @@
     </row>
     <row r="111" ht="28" spans="1:10">
       <c r="A111" s="20" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="C111" s="24" t="s">
         <v>30</v>
@@ -15333,7 +15415,7 @@
         <v>363</v>
       </c>
       <c r="E111" s="25" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="F111" s="25"/>
       <c r="G111" s="25"/>
@@ -15344,7 +15426,7 @@
     <row r="112" spans="1:10">
       <c r="A112" s="20"/>
       <c r="B112" s="26" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="C112" s="24" t="s">
         <v>30</v>
@@ -15353,10 +15435,10 @@
         <v>706</v>
       </c>
       <c r="E112" s="25" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="F112" s="25" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="G112" s="25"/>
       <c r="H112" s="25"/>
@@ -15366,7 +15448,7 @@
     <row r="113" spans="1:10">
       <c r="A113" s="14"/>
       <c r="B113" s="15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C113" s="21" t="s">
         <v>30</v>
@@ -15375,7 +15457,7 @@
         <v>714</v>
       </c>
       <c r="E113" s="22" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F113" s="39"/>
       <c r="G113" s="25"/>
@@ -15386,7 +15468,7 @@
     <row r="114" spans="1:10">
       <c r="A114" s="20"/>
       <c r="B114" s="26" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="C114" s="24" t="s">
         <v>30</v>
@@ -15395,10 +15477,10 @@
         <v>706</v>
       </c>
       <c r="E114" s="25" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F114" s="25" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G114" s="25"/>
       <c r="H114" s="25"/>
@@ -15408,7 +15490,7 @@
     <row r="115" spans="1:10">
       <c r="A115" s="14"/>
       <c r="B115" s="15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C115" s="21" t="s">
         <v>30</v>
@@ -15417,7 +15499,7 @@
         <v>714</v>
       </c>
       <c r="E115" s="22" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F115" s="39"/>
       <c r="G115" s="25"/>
@@ -15428,7 +15510,7 @@
     <row r="116" spans="1:10">
       <c r="A116" s="20"/>
       <c r="B116" s="26" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="C116" s="24" t="s">
         <v>30</v>
@@ -15437,10 +15519,10 @@
         <v>706</v>
       </c>
       <c r="E116" s="25" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="F116" s="25" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="G116" s="25"/>
       <c r="H116" s="25"/>
@@ -15450,7 +15532,7 @@
     <row r="117" spans="1:10">
       <c r="A117" s="14"/>
       <c r="B117" s="15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C117" s="21" t="s">
         <v>30</v>
@@ -15459,7 +15541,7 @@
         <v>714</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F117" s="39"/>
       <c r="G117" s="25"/>
@@ -15470,7 +15552,7 @@
     <row r="118" spans="1:10">
       <c r="A118" s="20"/>
       <c r="B118" s="26" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="C118" s="24" t="s">
         <v>30</v>
@@ -15479,10 +15561,10 @@
         <v>706</v>
       </c>
       <c r="E118" s="25" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="F118" s="25" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="G118" s="25"/>
       <c r="H118" s="25"/>
@@ -15492,7 +15574,7 @@
     <row r="119" spans="1:10">
       <c r="A119" s="14"/>
       <c r="B119" s="15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C119" s="21" t="s">
         <v>30</v>
@@ -15501,7 +15583,7 @@
         <v>714</v>
       </c>
       <c r="E119" s="22" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F119" s="39"/>
       <c r="G119" s="25"/>
@@ -15512,7 +15594,7 @@
     <row r="120" spans="1:10">
       <c r="A120" s="20"/>
       <c r="B120" s="26" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="C120" s="24" t="s">
         <v>30</v>
@@ -15521,10 +15603,10 @@
         <v>576</v>
       </c>
       <c r="E120" s="25" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="F120" s="25" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="G120" s="25"/>
       <c r="H120" s="25"/>
@@ -15534,7 +15616,7 @@
     <row r="121" spans="1:10">
       <c r="A121" s="14"/>
       <c r="B121" s="15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C121" s="21" t="s">
         <v>30</v>
@@ -15543,7 +15625,7 @@
         <v>714</v>
       </c>
       <c r="E121" s="22" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F121" s="39"/>
       <c r="G121" s="25"/>
@@ -15554,7 +15636,7 @@
     <row r="122" spans="1:10">
       <c r="A122" s="20"/>
       <c r="B122" s="26" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C122" s="24" t="s">
         <v>30</v>
@@ -15563,10 +15645,10 @@
         <v>576</v>
       </c>
       <c r="E122" s="25" t="s">
+        <v>893</v>
+      </c>
+      <c r="F122" s="25" t="s">
         <v>891</v>
-      </c>
-      <c r="F122" s="25" t="s">
-        <v>889</v>
       </c>
       <c r="G122" s="25"/>
       <c r="H122" s="25"/>
@@ -15576,7 +15658,7 @@
     <row r="123" spans="1:10">
       <c r="A123" s="20"/>
       <c r="B123" s="26" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C123" s="21" t="s">
         <v>5</v>
@@ -15585,16 +15667,16 @@
         <v>486</v>
       </c>
       <c r="E123" s="25" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="F123" s="34" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="I123" s="25"/>
       <c r="J123" s="50"/>
@@ -15602,7 +15684,7 @@
     <row r="124" spans="1:10">
       <c r="A124" s="20"/>
       <c r="B124" s="26" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C124" s="21" t="s">
         <v>30</v>
@@ -15611,7 +15693,7 @@
         <v>253</v>
       </c>
       <c r="E124" s="25" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="F124" s="34"/>
       <c r="G124" s="5"/>
@@ -15622,7 +15704,7 @@
     <row r="125" spans="1:10">
       <c r="A125" s="20"/>
       <c r="B125" s="26" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="C125" s="24" t="s">
         <v>30</v>
@@ -15631,13 +15713,13 @@
         <v>650</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="F125" s="25" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="G125" s="25" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="H125" s="25"/>
       <c r="I125" s="25"/>
@@ -15646,7 +15728,7 @@
     <row r="126" spans="1:10">
       <c r="A126" s="20"/>
       <c r="B126" s="26" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="C126" s="21" t="s">
         <v>5</v>
@@ -15655,10 +15737,10 @@
         <v>49</v>
       </c>
       <c r="E126" s="22" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="F126" s="22" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="G126" s="25"/>
       <c r="H126" s="25"/>
@@ -15668,7 +15750,7 @@
     <row r="127" spans="1:10">
       <c r="A127" s="20"/>
       <c r="B127" s="26" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="C127" s="24" t="s">
         <v>30</v>
@@ -15677,13 +15759,13 @@
         <v>650</v>
       </c>
       <c r="E127" s="25" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="F127" s="25" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="G127" s="25" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="H127" s="25"/>
       <c r="I127" s="25"/>
@@ -15692,7 +15774,7 @@
     <row r="128" spans="1:10">
       <c r="A128" s="20"/>
       <c r="B128" s="26" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="C128" s="21" t="s">
         <v>5</v>
@@ -15701,10 +15783,10 @@
         <v>49</v>
       </c>
       <c r="E128" s="25" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F128" s="22" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="G128" s="25"/>
       <c r="H128" s="25"/>
@@ -15714,7 +15796,7 @@
     <row r="129" spans="1:10">
       <c r="A129" s="20"/>
       <c r="B129" s="26" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="C129" s="24" t="s">
         <v>30</v>
@@ -15723,13 +15805,13 @@
         <v>650</v>
       </c>
       <c r="E129" s="25" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="F129" s="25" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="G129" s="25" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="H129" s="25"/>
       <c r="I129" s="25"/>
@@ -15738,7 +15820,7 @@
     <row r="130" spans="1:10">
       <c r="A130" s="20"/>
       <c r="B130" s="26" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="C130" s="21" t="s">
         <v>5</v>
@@ -15747,10 +15829,10 @@
         <v>49</v>
       </c>
       <c r="E130" s="25" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="F130" s="22" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="G130" s="25"/>
       <c r="H130" s="25"/>
@@ -15760,7 +15842,7 @@
     <row r="131" spans="1:10">
       <c r="A131" s="20"/>
       <c r="B131" s="26" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="C131" s="24" t="s">
         <v>30</v>
@@ -15769,13 +15851,13 @@
         <v>650</v>
       </c>
       <c r="E131" s="25" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="F131" s="25" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="G131" s="25" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="H131" s="25"/>
       <c r="I131" s="25"/>
@@ -15784,7 +15866,7 @@
     <row r="132" spans="1:10">
       <c r="A132" s="20"/>
       <c r="B132" s="26" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="C132" s="21" t="s">
         <v>5</v>
@@ -15793,10 +15875,10 @@
         <v>49</v>
       </c>
       <c r="E132" s="25" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="F132" s="22" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="G132" s="25"/>
       <c r="H132" s="25"/>
@@ -15805,10 +15887,10 @@
     </row>
     <row r="133" ht="28" spans="1:6">
       <c r="A133" s="20" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B133" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="C133" s="21" t="s">
         <v>30</v>
@@ -15817,7 +15899,7 @@
         <v>576</v>
       </c>
       <c r="E133" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="F133">
         <v>3000</v>
@@ -15825,7 +15907,7 @@
     </row>
     <row r="134" spans="2:5">
       <c r="B134" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="C134" s="21" t="s">
         <v>30</v>
@@ -15834,12 +15916,12 @@
         <v>253</v>
       </c>
       <c r="E134" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="135" customFormat="1" spans="2:5">
       <c r="B135" s="26" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C135" s="24" t="s">
         <v>30</v>
@@ -15848,15 +15930,15 @@
         <v>363</v>
       </c>
       <c r="E135" s="27" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="136" s="4" customFormat="1" ht="28" spans="1:6">
       <c r="A136" s="14" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C136" s="21" t="s">
         <v>30</v>
@@ -15865,7 +15947,7 @@
         <v>576</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="F136" s="4">
         <v>2000</v>
@@ -15874,7 +15956,7 @@
     <row r="137" customFormat="1" spans="1:10">
       <c r="A137" s="14"/>
       <c r="B137" s="15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C137" s="21" t="s">
         <v>30</v>
@@ -15883,7 +15965,7 @@
         <v>714</v>
       </c>
       <c r="E137" s="22" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F137" s="39"/>
       <c r="G137" s="25"/>
@@ -15893,7 +15975,7 @@
     </row>
     <row r="138" s="4" customFormat="1" spans="2:6">
       <c r="B138" s="4" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C138" s="21" t="s">
         <v>30</v>
@@ -15902,7 +15984,7 @@
         <v>576</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="F138" s="4">
         <v>1000</v>
@@ -15911,7 +15993,7 @@
     <row r="139" customFormat="1" spans="1:10">
       <c r="A139" s="14"/>
       <c r="B139" s="15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C139" s="21" t="s">
         <v>30</v>
@@ -15920,7 +16002,7 @@
         <v>714</v>
       </c>
       <c r="E139" s="22" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F139" s="39"/>
       <c r="G139" s="25"/>
@@ -15930,7 +16012,7 @@
     </row>
     <row r="140" s="4" customFormat="1" spans="2:6">
       <c r="B140" s="4" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C140" s="21" t="s">
         <v>30</v>
@@ -15939,7 +16021,7 @@
         <v>576</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="F140" s="4">
         <v>2000</v>
@@ -15948,7 +16030,7 @@
     <row r="141" customFormat="1" spans="1:10">
       <c r="A141" s="14"/>
       <c r="B141" s="15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C141" s="21" t="s">
         <v>30</v>
@@ -15957,7 +16039,7 @@
         <v>714</v>
       </c>
       <c r="E141" s="22" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F141" s="39"/>
       <c r="G141" s="25"/>
@@ -15968,7 +16050,7 @@
     <row r="142" s="4" customFormat="1" spans="1:10">
       <c r="A142" s="14"/>
       <c r="B142" s="15" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C142" s="21" t="s">
         <v>5</v>
@@ -15977,16 +16059,16 @@
         <v>486</v>
       </c>
       <c r="E142" s="39" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="F142" s="57" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="I142" s="22"/>
       <c r="J142" s="40"/>
@@ -15994,7 +16076,7 @@
     <row r="143" customFormat="1" spans="1:10">
       <c r="A143" s="58"/>
       <c r="B143" s="59" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C143" s="21" t="s">
         <v>30</v>
@@ -16003,7 +16085,7 @@
         <v>253</v>
       </c>
       <c r="E143" s="39" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="F143" s="39"/>
       <c r="G143" s="60"/>
@@ -16013,7 +16095,7 @@
     </row>
     <row r="144" s="4" customFormat="1" spans="2:6">
       <c r="B144" s="4" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="C144" s="21" t="s">
         <v>30</v>
@@ -16022,7 +16104,7 @@
         <v>576</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="F144" s="4">
         <v>2000</v>
@@ -16031,7 +16113,7 @@
     <row r="145" customFormat="1" spans="1:10">
       <c r="A145" s="14"/>
       <c r="B145" s="15" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C145" s="21" t="s">
         <v>30</v>
@@ -16040,7 +16122,7 @@
         <v>714</v>
       </c>
       <c r="E145" s="22" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F145" s="39"/>
       <c r="G145" s="25"/>
@@ -16051,7 +16133,7 @@
     <row r="146" s="4" customFormat="1" spans="1:10">
       <c r="A146" s="14"/>
       <c r="B146" s="15" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C146" s="21" t="s">
         <v>5</v>
@@ -16060,16 +16142,16 @@
         <v>486</v>
       </c>
       <c r="E146" s="22" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="F146" s="57" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="I146" s="22"/>
       <c r="J146" s="40"/>
@@ -16077,7 +16159,7 @@
     <row r="147" s="4" customFormat="1" spans="1:10">
       <c r="A147" s="14"/>
       <c r="B147" s="15" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C147" s="21" t="s">
         <v>30</v>
@@ -16086,7 +16168,7 @@
         <v>253</v>
       </c>
       <c r="E147" s="22" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="F147" s="57"/>
       <c r="G147" s="5"/>
@@ -16095,10 +16177,10 @@
     </row>
     <row r="148" ht="28" spans="1:10">
       <c r="A148" s="14" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C148" s="21" t="s">
         <v>5</v>
@@ -16107,16 +16189,16 @@
         <v>486</v>
       </c>
       <c r="E148" s="40" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="F148" s="34" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="I148" s="6"/>
       <c r="J148" s="6"/>
@@ -16124,7 +16206,7 @@
     <row r="149" spans="1:10">
       <c r="A149" s="14"/>
       <c r="B149" s="15" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C149" s="21" t="s">
         <v>30</v>
@@ -16133,7 +16215,7 @@
         <v>366</v>
       </c>
       <c r="E149" s="40" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="F149" s="27">
         <v>5000</v>

--- a/tests/artifact/script/Mobile-CreateCustomer.xlsx
+++ b/tests/artifact/script/Mobile-CreateCustomer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -10084,8 +10084,8 @@
   <sheetPr/>
   <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A45" sqref="$A45:$XFD46"/>
     </sheetView>
@@ -12819,8 +12819,8 @@
   <sheetPr/>
   <dimension ref="A1:P149"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="65" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A46" sqref="$A46:$XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5"/>
